--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Plaur.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Plaur.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H2">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.8752450299247</v>
+        <v>16.46646866666667</v>
       </c>
       <c r="N2">
-        <v>15.8752450299247</v>
+        <v>49.399406</v>
       </c>
       <c r="O2">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387753</v>
       </c>
       <c r="P2">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387752</v>
       </c>
       <c r="Q2">
-        <v>882.0142431133435</v>
+        <v>1018.36299691479</v>
       </c>
       <c r="R2">
-        <v>882.0142431133435</v>
+        <v>9165.266972233107</v>
       </c>
       <c r="S2">
-        <v>0.004326208384771266</v>
+        <v>0.004303633549744873</v>
       </c>
       <c r="T2">
-        <v>0.004326208384771266</v>
+        <v>0.004303633549744871</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H3">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.41763666429214</v>
+        <v>6.417914</v>
       </c>
       <c r="N3">
-        <v>6.41763666429214</v>
+        <v>19.253742</v>
       </c>
       <c r="O3">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615224</v>
       </c>
       <c r="P3">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615223</v>
       </c>
       <c r="Q3">
-        <v>356.5580836303427</v>
+        <v>396.9136471994046</v>
       </c>
       <c r="R3">
-        <v>356.5580836303427</v>
+        <v>3572.222824794642</v>
       </c>
       <c r="S3">
-        <v>0.00174888850503669</v>
+        <v>0.0016773693600553</v>
       </c>
       <c r="T3">
-        <v>0.00174888850503669</v>
+        <v>0.001677369360055299</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H4">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.0794758824926</v>
+        <v>37.95349166666666</v>
       </c>
       <c r="N4">
-        <v>37.0794758824926</v>
+        <v>113.860475</v>
       </c>
       <c r="O4">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="P4">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="Q4">
-        <v>2060.102114574499</v>
+        <v>2347.22042105408</v>
       </c>
       <c r="R4">
-        <v>2060.102114574499</v>
+        <v>21124.98378948672</v>
       </c>
       <c r="S4">
-        <v>0.01010463392302829</v>
+        <v>0.009919426160709045</v>
       </c>
       <c r="T4">
-        <v>0.01010463392302829</v>
+        <v>0.009919426160709042</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H5">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I5">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J5">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.2795410448422</v>
+        <v>54.91137833333332</v>
       </c>
       <c r="N5">
-        <v>48.2795410448422</v>
+        <v>164.734135</v>
       </c>
       <c r="O5">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="P5">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="Q5">
-        <v>2682.367596358799</v>
+        <v>3395.974992346376</v>
       </c>
       <c r="R5">
-        <v>2682.367596358799</v>
+        <v>30563.77493111738</v>
       </c>
       <c r="S5">
-        <v>0.01315679568330389</v>
+        <v>0.01435149544458492</v>
       </c>
       <c r="T5">
-        <v>0.01315679568330389</v>
+        <v>0.01435149544458492</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H6">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I6">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J6">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.588970884992</v>
+        <v>4.897192666666666</v>
       </c>
       <c r="N6">
-        <v>4.588970884992</v>
+        <v>14.691578</v>
       </c>
       <c r="O6">
-        <v>0.04088502615105332</v>
+        <v>0.04059127190309041</v>
       </c>
       <c r="P6">
-        <v>0.04088502615105332</v>
+        <v>0.04059127190309041</v>
       </c>
       <c r="Q6">
-        <v>254.9590682956903</v>
+        <v>302.8651680849642</v>
       </c>
       <c r="R6">
-        <v>254.9590682956903</v>
+        <v>2725.786512764678</v>
       </c>
       <c r="S6">
-        <v>0.001250553568319807</v>
+        <v>0.001279917575921736</v>
       </c>
       <c r="T6">
-        <v>0.001250553568319807</v>
+        <v>0.001279917575921736</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H7">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.8752450299247</v>
+        <v>16.46646866666667</v>
       </c>
       <c r="N7">
-        <v>15.8752450299247</v>
+        <v>49.399406</v>
       </c>
       <c r="O7">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387753</v>
       </c>
       <c r="P7">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387752</v>
       </c>
       <c r="Q7">
-        <v>21612.16894947577</v>
+        <v>22417.10578314434</v>
       </c>
       <c r="R7">
-        <v>21612.16894947577</v>
+        <v>201753.952048299</v>
       </c>
       <c r="S7">
-        <v>0.1060059372650065</v>
+        <v>0.0947353829909358</v>
       </c>
       <c r="T7">
-        <v>0.1060059372650065</v>
+        <v>0.0947353829909358</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H8">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J8">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.41763666429214</v>
+        <v>6.417914</v>
       </c>
       <c r="N8">
-        <v>6.41763666429214</v>
+        <v>19.253742</v>
       </c>
       <c r="O8">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615224</v>
       </c>
       <c r="P8">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615223</v>
       </c>
       <c r="Q8">
-        <v>8736.81304342612</v>
+        <v>8737.213786242064</v>
       </c>
       <c r="R8">
-        <v>8736.81304342612</v>
+        <v>78634.92407617859</v>
       </c>
       <c r="S8">
-        <v>0.04285335995395247</v>
+        <v>0.0369237359327492</v>
       </c>
       <c r="T8">
-        <v>0.04285335995395247</v>
+        <v>0.0369237359327492</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H9">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J9">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.0794758824926</v>
+        <v>37.95349166666666</v>
       </c>
       <c r="N9">
-        <v>37.0794758824926</v>
+        <v>113.860475</v>
       </c>
       <c r="O9">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="P9">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="Q9">
-        <v>50479.08840587157</v>
+        <v>51669.08915046592</v>
       </c>
       <c r="R9">
-        <v>50479.08840587157</v>
+        <v>465021.8023541933</v>
       </c>
       <c r="S9">
-        <v>0.2475958378475167</v>
+        <v>0.2183551702353439</v>
       </c>
       <c r="T9">
-        <v>0.2475958378475167</v>
+        <v>0.218355170235344</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H10">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J10">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>48.2795410448422</v>
+        <v>54.91137833333332</v>
       </c>
       <c r="N10">
-        <v>48.2795410448422</v>
+        <v>164.734135</v>
       </c>
       <c r="O10">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="P10">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="Q10">
-        <v>65726.58222896283</v>
+        <v>74755.20111294008</v>
       </c>
       <c r="R10">
-        <v>65726.58222896283</v>
+        <v>672796.8100164608</v>
       </c>
       <c r="S10">
-        <v>0.3223835594055787</v>
+        <v>0.3159177940501049</v>
       </c>
       <c r="T10">
-        <v>0.3223835594055787</v>
+        <v>0.315917794050105</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H11">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J11">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.588970884992</v>
+        <v>4.897192666666666</v>
       </c>
       <c r="N11">
-        <v>4.588970884992</v>
+        <v>14.691578</v>
       </c>
       <c r="O11">
-        <v>0.04088502615105332</v>
+        <v>0.04059127190309041</v>
       </c>
       <c r="P11">
-        <v>0.04088502615105332</v>
+        <v>0.04059127190309041</v>
       </c>
       <c r="Q11">
-        <v>6247.312333367043</v>
+        <v>6666.935593260293</v>
       </c>
       <c r="R11">
-        <v>6247.312333367043</v>
+        <v>60002.42033934264</v>
       </c>
       <c r="S11">
-        <v>0.03064256071817687</v>
+        <v>0.02817467620098927</v>
       </c>
       <c r="T11">
-        <v>0.03064256071817687</v>
+        <v>0.02817467620098927</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H12">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I12">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J12">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.8752450299247</v>
+        <v>16.46646866666667</v>
       </c>
       <c r="N12">
-        <v>15.8752450299247</v>
+        <v>49.399406</v>
       </c>
       <c r="O12">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387753</v>
       </c>
       <c r="P12">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387752</v>
       </c>
       <c r="Q12">
-        <v>3827.946701916007</v>
+        <v>4133.199131144562</v>
       </c>
       <c r="R12">
-        <v>3827.946701916007</v>
+        <v>37198.79218030105</v>
       </c>
       <c r="S12">
-        <v>0.01877576835928536</v>
+        <v>0.01746702747690121</v>
       </c>
       <c r="T12">
-        <v>0.01877576835928536</v>
+        <v>0.01746702747690121</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H13">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I13">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J13">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.41763666429214</v>
+        <v>6.417914</v>
       </c>
       <c r="N13">
-        <v>6.41763666429214</v>
+        <v>19.253742</v>
       </c>
       <c r="O13">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615224</v>
       </c>
       <c r="P13">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615223</v>
       </c>
       <c r="Q13">
-        <v>1547.464058467441</v>
+        <v>1610.941429248796</v>
       </c>
       <c r="R13">
-        <v>1547.464058467441</v>
+        <v>14498.47286323916</v>
       </c>
       <c r="S13">
-        <v>0.007590185801584289</v>
+        <v>0.006807888348843038</v>
       </c>
       <c r="T13">
-        <v>0.007590185801584289</v>
+        <v>0.006807888348843036</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H14">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I14">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J14">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>37.0794758824926</v>
+        <v>37.95349166666666</v>
       </c>
       <c r="N14">
-        <v>37.0794758824926</v>
+        <v>113.860475</v>
       </c>
       <c r="O14">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="P14">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="Q14">
-        <v>8940.854591258862</v>
+        <v>9526.592614123883</v>
       </c>
       <c r="R14">
-        <v>8940.854591258862</v>
+        <v>85739.33352711494</v>
       </c>
       <c r="S14">
-        <v>0.04385416721071495</v>
+        <v>0.04025967529565079</v>
       </c>
       <c r="T14">
-        <v>0.04385416721071495</v>
+        <v>0.04025967529565078</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H15">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I15">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J15">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>48.2795410448422</v>
+        <v>54.91137833333332</v>
       </c>
       <c r="N15">
-        <v>48.2795410448422</v>
+        <v>164.734135</v>
       </c>
       <c r="O15">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="P15">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="Q15">
-        <v>11641.49022986757</v>
+        <v>13783.14111007429</v>
       </c>
       <c r="R15">
-        <v>11641.49022986757</v>
+        <v>124048.2699906686</v>
       </c>
       <c r="S15">
-        <v>0.05710056616082774</v>
+        <v>0.05824798100666541</v>
       </c>
       <c r="T15">
-        <v>0.05710056616082774</v>
+        <v>0.05824798100666539</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H16">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I16">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J16">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.588970884992</v>
+        <v>4.897192666666666</v>
       </c>
       <c r="N16">
-        <v>4.588970884992</v>
+        <v>14.691578</v>
       </c>
       <c r="O16">
-        <v>0.04088502615105332</v>
+        <v>0.04059127190309041</v>
       </c>
       <c r="P16">
-        <v>0.04088502615105332</v>
+        <v>0.04059127190309041</v>
       </c>
       <c r="Q16">
-        <v>1106.523769005222</v>
+        <v>1229.229708242697</v>
       </c>
       <c r="R16">
-        <v>1106.523769005222</v>
+        <v>11063.06737418427</v>
       </c>
       <c r="S16">
-        <v>0.005427409415205934</v>
+        <v>0.005194762799476523</v>
       </c>
       <c r="T16">
-        <v>0.005427409415205934</v>
+        <v>0.005194762799476521</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H17">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I17">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J17">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.8752450299247</v>
+        <v>16.46646866666667</v>
       </c>
       <c r="N17">
-        <v>15.8752450299247</v>
+        <v>49.399406</v>
       </c>
       <c r="O17">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387753</v>
       </c>
       <c r="P17">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387752</v>
       </c>
       <c r="Q17">
-        <v>2119.325550588504</v>
+        <v>4281.801046579217</v>
       </c>
       <c r="R17">
-        <v>2119.325550588504</v>
+        <v>38536.20941921294</v>
       </c>
       <c r="S17">
-        <v>0.01039512007725906</v>
+        <v>0.01809502377169829</v>
       </c>
       <c r="T17">
-        <v>0.01039512007725906</v>
+        <v>0.01809502377169828</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H18">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I18">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J18">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.41763666429214</v>
+        <v>6.417914</v>
       </c>
       <c r="N18">
-        <v>6.41763666429214</v>
+        <v>19.253742</v>
       </c>
       <c r="O18">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615224</v>
       </c>
       <c r="P18">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615223</v>
       </c>
       <c r="Q18">
-        <v>856.7465466762894</v>
+        <v>1668.859998967725</v>
       </c>
       <c r="R18">
-        <v>856.7465466762894</v>
+        <v>15019.73999070952</v>
       </c>
       <c r="S18">
-        <v>0.004202272381420591</v>
+        <v>0.007052654017421701</v>
       </c>
       <c r="T18">
-        <v>0.004202272381420591</v>
+        <v>0.0070526540174217</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H19">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I19">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J19">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>37.0794758824926</v>
+        <v>37.95349166666666</v>
       </c>
       <c r="N19">
-        <v>37.0794758824926</v>
+        <v>113.860475</v>
       </c>
       <c r="O19">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="P19">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="Q19">
-        <v>4950.064108747149</v>
+        <v>9869.104519576747</v>
       </c>
       <c r="R19">
-        <v>4950.064108747149</v>
+        <v>88821.94067619073</v>
       </c>
       <c r="S19">
-        <v>0.02427966330433201</v>
+        <v>0.04170714121100683</v>
       </c>
       <c r="T19">
-        <v>0.02427966330433201</v>
+        <v>0.04170714121100683</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H20">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I20">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J20">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>48.2795410448422</v>
+        <v>54.91137833333332</v>
       </c>
       <c r="N20">
-        <v>48.2795410448422</v>
+        <v>164.734135</v>
       </c>
       <c r="O20">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="P20">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="Q20">
-        <v>6445.258937052503</v>
+        <v>14278.68974072931</v>
       </c>
       <c r="R20">
-        <v>6445.258937052503</v>
+        <v>128508.2076665638</v>
       </c>
       <c r="S20">
-        <v>0.03161347276782615</v>
+        <v>0.06034218486018139</v>
       </c>
       <c r="T20">
-        <v>0.03161347276782615</v>
+        <v>0.06034218486018139</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H21">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I21">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J21">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.588970884992</v>
+        <v>4.897192666666666</v>
       </c>
       <c r="N21">
-        <v>4.588970884992</v>
+        <v>14.691578</v>
       </c>
       <c r="O21">
-        <v>0.04088502615105332</v>
+        <v>0.04059127190309041</v>
       </c>
       <c r="P21">
-        <v>0.04088502615105332</v>
+        <v>0.04059127190309041</v>
       </c>
       <c r="Q21">
-        <v>612.621929874957</v>
+        <v>1273.424503450511</v>
       </c>
       <c r="R21">
-        <v>612.621929874957</v>
+        <v>11460.8205310546</v>
       </c>
       <c r="S21">
-        <v>0.003004860919665684</v>
+        <v>0.005381531372133493</v>
       </c>
       <c r="T21">
-        <v>0.003004860919665684</v>
+        <v>0.005381531372133493</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H22">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I22">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J22">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>15.8752450299247</v>
+        <v>16.46646866666667</v>
       </c>
       <c r="N22">
-        <v>15.8752450299247</v>
+        <v>49.399406</v>
       </c>
       <c r="O22">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387753</v>
       </c>
       <c r="P22">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387752</v>
       </c>
       <c r="Q22">
-        <v>394.7146389603503</v>
+        <v>445.8679950443476</v>
       </c>
       <c r="R22">
-        <v>394.7146389603503</v>
+        <v>4012.811955399128</v>
       </c>
       <c r="S22">
-        <v>0.001936043316754912</v>
+        <v>0.001884251949495071</v>
       </c>
       <c r="T22">
-        <v>0.001936043316754912</v>
+        <v>0.00188425194949507</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H23">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I23">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J23">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.41763666429214</v>
+        <v>6.417914</v>
       </c>
       <c r="N23">
-        <v>6.41763666429214</v>
+        <v>19.253742</v>
       </c>
       <c r="O23">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615224</v>
       </c>
       <c r="P23">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615223</v>
       </c>
       <c r="Q23">
-        <v>159.5651049259297</v>
+        <v>173.7799710110107</v>
       </c>
       <c r="R23">
-        <v>159.5651049259297</v>
+        <v>1564.019739099096</v>
       </c>
       <c r="S23">
-        <v>0.0007826539086384745</v>
+        <v>0.0007343995370829989</v>
       </c>
       <c r="T23">
-        <v>0.0007826539086384745</v>
+        <v>0.0007343995370829988</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H24">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I24">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J24">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>37.0794758824926</v>
+        <v>37.95349166666666</v>
       </c>
       <c r="N24">
-        <v>37.0794758824926</v>
+        <v>113.860475</v>
       </c>
       <c r="O24">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="P24">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="Q24">
-        <v>921.9266794439208</v>
+        <v>1027.679193208256</v>
       </c>
       <c r="R24">
-        <v>921.9266794439208</v>
+        <v>9249.112738874299</v>
       </c>
       <c r="S24">
-        <v>0.004521975650502148</v>
+        <v>0.004343004083676325</v>
       </c>
       <c r="T24">
-        <v>0.004521975650502148</v>
+        <v>0.004343004083676325</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H25">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I25">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J25">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>48.2795410448422</v>
+        <v>54.91137833333332</v>
       </c>
       <c r="N25">
-        <v>48.2795410448422</v>
+        <v>164.734135</v>
       </c>
       <c r="O25">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="P25">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="Q25">
-        <v>1200.399841184479</v>
+        <v>1486.853475278931</v>
       </c>
       <c r="R25">
-        <v>1200.399841184479</v>
+        <v>13381.68127751038</v>
       </c>
       <c r="S25">
-        <v>0.005887863941606484</v>
+        <v>0.006283488814058494</v>
       </c>
       <c r="T25">
-        <v>0.005887863941606484</v>
+        <v>0.006283488814058494</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H26">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I26">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J26">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.588970884992</v>
+        <v>4.897192666666666</v>
       </c>
       <c r="N26">
-        <v>4.588970884992</v>
+        <v>14.691578</v>
       </c>
       <c r="O26">
-        <v>0.04088502615105332</v>
+        <v>0.04059127190309041</v>
       </c>
       <c r="P26">
-        <v>0.04088502615105332</v>
+        <v>0.04059127190309041</v>
       </c>
       <c r="Q26">
-        <v>114.0980175521592</v>
+        <v>132.6028986441182</v>
       </c>
       <c r="R26">
-        <v>114.0980175521592</v>
+        <v>1193.426087797064</v>
       </c>
       <c r="S26">
-        <v>0.000559641529685024</v>
+        <v>0.0005603839545693907</v>
       </c>
       <c r="T26">
-        <v>0.000559641529685024</v>
+        <v>0.0005603839545693907</v>
       </c>
     </row>
   </sheetData>
